--- a/biology/Botanique/Centranthe/Centranthe.xlsx
+++ b/biology/Botanique/Centranthe/Centranthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centranthus
-Les centranthes sont des plantes herbacées du genre Centranthus (du grec « kentron », éperon et « anthos », fleur), appartenant à la famille des Valérianacées selon la classification classique. Tous les genres de la famille des Valérianacées ont été rangés dans la famille des Caprifoliacées par la classification phylogénétique APG III (2009)[1]. Il existe 9 espèces de centranthes, dont 8 en Europe.
+Les centranthes sont des plantes herbacées du genre Centranthus (du grec « kentron », éperon et « anthos », fleur), appartenant à la famille des Valérianacées selon la classification classique. Tous les genres de la famille des Valérianacées ont été rangés dans la famille des Caprifoliacées par la classification phylogénétique APG III (2009). Il existe 9 espèces de centranthes, dont 8 en Europe.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flore française[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flore française :
 Centranthus angustifolius - Centranthe à feuilles étroites
 Centranthus calcitrapae
 Centranthus lecoqii
 Centranthus ruber - Centranthe rouge ou Lilas d'Espagne
 Centranthus trinervis - Centranthe à trois nervures
-Selon The Plant List            (20 février 2014)[3] :
+Selon The Plant List            (20 février 2014) :
 Centranthus amazonum Fridlender &amp; A.Raynal
 Centranthus angustifolius (Mill.) DC.
 Centranthus aurigeranus Giraudias
@@ -532,7 +546,7 @@
 Centranthus nevadensis Boiss.
 Centranthus ruber (L.) DC.
 Centranthus trinervis (Viv.) Bég.
-Selon Tropicos                                           (20 février 2014)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 février 2014) (Attention liste brute contenant possiblement des synonymes) :
 Centranthus amazonum Fridlender &amp; A. Raynal
 Centranthus angustifolius (Mill.) DC.
 Centranthus battandieri Maire
